--- a/results/efa_table_final.xlsx
+++ b/results/efa_table_final.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">item</t>
   </si>
@@ -32,79 +32,73 @@
     <t xml:space="preserve">uniqueness</t>
   </si>
   <si>
-    <t xml:space="preserve">qol_nms_r</t>
+    <t xml:space="preserve">qol_unpredict_r</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">qol_loss_independence_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qol_unpredict_r</t>
+    <t xml:space="preserve">0.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_effect_medication_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_taking_medication_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_family_contact_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_friends_contact_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_affectp_contact_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_support_yes_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_badmob_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_badadl_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_sum_ident_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_thoughts_future_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_self_image_r</t>
   </si>
   <si>
     <t xml:space="preserve">0.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qol_effect_medication_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qol_taking_medication_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qol_family_contact_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qol_friends_contact_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qol_affectp_contact_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qol_support_yes_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qol_badmob_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qol_sum_ident_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qol_thoughts_future_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qol_self_image_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48</t>
   </si>
 </sst>
 </file>
@@ -472,7 +466,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -481,12 +475,12 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.847</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -495,18 +489,18 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -515,22 +509,22 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>0.649</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -538,10 +532,10 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.078</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="6">
@@ -549,7 +543,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -558,10 +552,10 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.535</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="7">
@@ -569,7 +563,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -581,16 +575,16 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.383</v>
+        <v>0.816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -601,79 +595,79 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.251</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
       <c r="F9" t="n">
-        <v>0.748</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
       <c r="F10" t="n">
-        <v>0.63</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>0.812</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
@@ -681,19 +675,19 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>0.283</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
@@ -701,27 +695,7 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.366</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.557</v>
+        <v>0.592</v>
       </c>
     </row>
   </sheetData>

--- a/results/efa_table_final.xlsx
+++ b/results/efa_table_final.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">item</t>
   </si>
@@ -32,73 +32,94 @@
     <t xml:space="preserve">uniqueness</t>
   </si>
   <si>
+    <t xml:space="preserve">qol_loss_independence_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34</t>
+  </si>
+  <si>
     <t xml:space="preserve">qol_unpredict_r</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">0.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_effect_medication_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_taking_medication_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_family_contact_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_friends_contact_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_affectp_contact_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_support_yes_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_leisure_yes_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_badmob_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_badadl_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_sum_ident_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qol_feeling_needed_r</t>
   </si>
   <si>
     <t xml:space="preserve">0.43</t>
   </si>
   <si>
-    <t xml:space="preserve">qol_effect_medication_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qol_taking_medication_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qol_family_contact_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qol_friends_contact_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qol_affectp_contact_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qol_support_yes_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qol_badmob_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qol_badadl_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qol_sum_ident_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7</t>
-  </si>
-  <si>
     <t xml:space="preserve">qol_thoughts_future_r</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91</t>
+    <t xml:space="preserve">0.82</t>
   </si>
   <si>
     <t xml:space="preserve">qol_self_image_r</t>
   </si>
   <si>
-    <t xml:space="preserve">0.53</t>
+    <t xml:space="preserve">0.73</t>
   </si>
 </sst>
 </file>
@@ -469,233 +490,293 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0.851</v>
+        <v>0.561</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.249</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.363</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.373</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.155</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.816</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.666</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>0.613</v>
+        <v>0.559</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.252</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>0.416</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>0.272</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>0.592</v>
+        <v>0.482</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.615</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.446</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.465</v>
       </c>
     </row>
   </sheetData>
